--- a/Population_estimate_calculations.xlsx
+++ b/Population_estimate_calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heiwu\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heiwu\OneDrive\Documents\Deer_RPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA06A0-C1FF-4F61-A0A2-61E6F6CF76D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C688D-2741-40E2-B7E7-00D190A73F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79CABF98-DA17-4D78-AF4B-650A465C74CF}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -195,10 +195,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -543,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FC9506-6A75-45A6-87FC-0FAF3ED01B8E}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +553,7 @@
     <col min="2" max="2" width="8.1796875" style="2" customWidth="1"/>
     <col min="3" max="14" width="8.6328125" style="2" customWidth="1"/>
     <col min="15" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="2"/>
+    <col min="18" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20" x14ac:dyDescent="0.35">
@@ -566,13 +563,13 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -626,46 +623,46 @@
         <v>79</v>
       </c>
       <c r="F2" s="2">
-        <f>C2-E2</f>
+        <f t="shared" ref="F2:F33" si="0">C2-E2</f>
         <v>130</v>
       </c>
       <c r="G2" s="2">
-        <f>B2-C2</f>
+        <f t="shared" ref="G2:G33" si="1">B2-C2</f>
         <v>31</v>
       </c>
       <c r="H2" s="2">
-        <f>D2-E2</f>
+        <f t="shared" ref="H2:H33" si="2">D2-E2</f>
         <v>16</v>
       </c>
       <c r="I2" s="2">
         <f>G2-H2</f>
         <v>15</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>L2+M2+N2</f>
         <v>81.923723723723725</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>L2+M2</f>
         <v>75.723723723723722</v>
       </c>
-      <c r="L2" s="5">
-        <f>E2/3.33</f>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L33" si="3">E2/3.33</f>
         <v>23.723723723723722</v>
       </c>
       <c r="M2" s="2">
-        <f>F2/2.5</f>
+        <f t="shared" ref="M2:M33" si="4">F2/2.5</f>
         <v>52</v>
       </c>
       <c r="N2" s="2">
-        <f>G2/5</f>
+        <f t="shared" ref="N2:N33" si="5">G2/5</f>
         <v>6.2</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <f>H2/G2</f>
         <v>0.5161290322580645</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <f>I2/G2</f>
         <v>0.4838709677419355</v>
       </c>
@@ -687,47 +684,47 @@
         <v>90</v>
       </c>
       <c r="F3" s="2">
-        <f>C3-E3</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="G3" s="2">
-        <f>B3-C3</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="H3" s="2">
-        <f>D3-E3</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I51" si="0">G3-H3</f>
+        <f t="shared" ref="I3:I51" si="6">G3-H3</f>
         <v>20</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J51" si="1">L3+M3+N3</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J51" si="7">L3+M3+N3</f>
         <v>80.227027027027034</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K51" si="2">L3+M3</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K51" si="8">L3+M3</f>
         <v>71.827027027027029</v>
       </c>
-      <c r="L3" s="5">
-        <f>E3/3.33</f>
+      <c r="L3" s="4">
+        <f t="shared" si="3"/>
         <v>27.027027027027028</v>
       </c>
       <c r="M3" s="2">
-        <f>F3/2.5</f>
+        <f t="shared" si="4"/>
         <v>44.8</v>
       </c>
       <c r="N3" s="2">
-        <f>G3/5</f>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O51" si="3">H3/G3</f>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O51" si="9">H3/G3</f>
         <v>0.52380952380952384</v>
       </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:P51" si="4">I3/G3</f>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P51" si="10">I3/G3</f>
         <v>0.47619047619047616</v>
       </c>
     </row>
@@ -748,47 +745,47 @@
         <v>113</v>
       </c>
       <c r="F4" s="2">
-        <f>C4-E4</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="G4" s="2">
-        <f>B4-C4</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H4" s="2">
-        <f>D4-E4</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="1"/>
+      <c r="J4" s="4">
+        <f t="shared" si="7"/>
         <v>88.133933933933946</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="2"/>
+      <c r="K4" s="4">
+        <f t="shared" si="8"/>
         <v>79.133933933933946</v>
       </c>
-      <c r="L4" s="5">
-        <f>E4/3.33</f>
+      <c r="L4" s="4">
+        <f t="shared" si="3"/>
         <v>33.933933933933936</v>
       </c>
       <c r="M4" s="2">
-        <f>F4/2.5</f>
+        <f t="shared" si="4"/>
         <v>45.2</v>
       </c>
       <c r="N4" s="2">
-        <f>G4/5</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="O4" s="4">
-        <f t="shared" si="3"/>
+      <c r="O4" s="3">
+        <f t="shared" si="9"/>
         <v>0.42222222222222222</v>
       </c>
-      <c r="P4" s="4">
-        <f t="shared" si="4"/>
+      <c r="P4" s="3">
+        <f t="shared" si="10"/>
         <v>0.57777777777777772</v>
       </c>
     </row>
@@ -809,47 +806,47 @@
         <v>114</v>
       </c>
       <c r="F5" s="2">
-        <f>C5-E5</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="G5" s="2">
-        <f>B5-C5</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="H5" s="2">
-        <f>D5-E5</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="1"/>
+      <c r="J5" s="4">
+        <f t="shared" si="7"/>
         <v>89.434234234234239</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="2"/>
+      <c r="K5" s="4">
+        <f t="shared" si="8"/>
         <v>80.634234234234242</v>
       </c>
-      <c r="L5" s="5">
-        <f>E5/3.33</f>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
         <v>34.234234234234236</v>
       </c>
       <c r="M5" s="2">
-        <f>F5/2.5</f>
+        <f t="shared" si="4"/>
         <v>46.4</v>
       </c>
       <c r="N5" s="2">
-        <f>G5/5</f>
+        <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="O5" s="4">
-        <f t="shared" si="3"/>
+      <c r="O5" s="3">
+        <f t="shared" si="9"/>
         <v>0.38636363636363635</v>
       </c>
-      <c r="P5" s="4">
-        <f t="shared" si="4"/>
+      <c r="P5" s="3">
+        <f t="shared" si="10"/>
         <v>0.61363636363636365</v>
       </c>
     </row>
@@ -870,47 +867,47 @@
         <v>134</v>
       </c>
       <c r="F6" s="2">
-        <f>C6-E6</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="G6" s="2">
-        <f>B6-C6</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="H6" s="2">
-        <f>D6-E6</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="1"/>
+      <c r="J6" s="4">
+        <f t="shared" si="7"/>
         <v>102.64024024024025</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="2"/>
+      <c r="K6" s="4">
+        <f t="shared" si="8"/>
         <v>91.440240240240243</v>
       </c>
-      <c r="L6" s="5">
-        <f>E6/3.33</f>
+      <c r="L6" s="4">
+        <f t="shared" si="3"/>
         <v>40.24024024024024</v>
       </c>
       <c r="M6" s="2">
-        <f>F6/2.5</f>
+        <f t="shared" si="4"/>
         <v>51.2</v>
       </c>
       <c r="N6" s="2">
-        <f>G6/5</f>
+        <f t="shared" si="5"/>
         <v>11.2</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" si="3"/>
+      <c r="O6" s="3">
+        <f t="shared" si="9"/>
         <v>0.375</v>
       </c>
-      <c r="P6" s="4">
-        <f t="shared" si="4"/>
+      <c r="P6" s="3">
+        <f t="shared" si="10"/>
         <v>0.625</v>
       </c>
     </row>
@@ -931,47 +928,47 @@
         <v>151</v>
       </c>
       <c r="F7" s="2">
-        <f>C7-E7</f>
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="G7" s="2">
-        <f>B7-C7</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H7" s="2">
-        <f>D7-E7</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="1"/>
+      <c r="J7" s="4">
+        <f t="shared" si="7"/>
         <v>114.94534534534534</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="2"/>
+      <c r="K7" s="4">
+        <f t="shared" si="8"/>
         <v>104.94534534534534</v>
       </c>
-      <c r="L7" s="5">
-        <f>E7/3.33</f>
+      <c r="L7" s="4">
+        <f t="shared" si="3"/>
         <v>45.345345345345343</v>
       </c>
       <c r="M7" s="2">
-        <f>F7/2.5</f>
+        <f t="shared" si="4"/>
         <v>59.6</v>
       </c>
       <c r="N7" s="2">
-        <f>G7/5</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O7" s="4">
-        <f t="shared" si="3"/>
+      <c r="O7" s="3">
+        <f t="shared" si="9"/>
         <v>0.42</v>
       </c>
-      <c r="P7" s="4">
-        <f t="shared" si="4"/>
+      <c r="P7" s="3">
+        <f t="shared" si="10"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -992,47 +989,47 @@
         <v>142</v>
       </c>
       <c r="F8" s="2">
-        <f>C8-E8</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="G8" s="2">
-        <f>B8-C8</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="H8" s="2">
-        <f>D8-E8</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="1"/>
+      <c r="J8" s="4">
+        <f t="shared" si="7"/>
         <v>102.44264264264265</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="2"/>
+      <c r="K8" s="4">
+        <f t="shared" si="8"/>
         <v>91.042642642642647</v>
       </c>
-      <c r="L8" s="5">
-        <f>E8/3.33</f>
+      <c r="L8" s="4">
+        <f t="shared" si="3"/>
         <v>42.642642642642642</v>
       </c>
       <c r="M8" s="2">
-        <f>F8/2.5</f>
+        <f t="shared" si="4"/>
         <v>48.4</v>
       </c>
       <c r="N8" s="2">
-        <f>G8/5</f>
+        <f t="shared" si="5"/>
         <v>11.4</v>
       </c>
-      <c r="O8" s="4">
-        <f t="shared" si="3"/>
+      <c r="O8" s="3">
+        <f t="shared" si="9"/>
         <v>0.45614035087719296</v>
       </c>
-      <c r="P8" s="4">
-        <f t="shared" si="4"/>
+      <c r="P8" s="3">
+        <f t="shared" si="10"/>
         <v>0.54385964912280704</v>
       </c>
     </row>
@@ -1053,47 +1050,47 @@
         <v>155</v>
       </c>
       <c r="F9" s="2">
-        <f>C9-E9</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="G9" s="2">
-        <f>B9-C9</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="H9" s="2">
-        <f>D9-E9</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="1"/>
+      <c r="J9" s="4">
+        <f t="shared" si="7"/>
         <v>96.74654654654654</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="2"/>
+      <c r="K9" s="4">
+        <f t="shared" si="8"/>
         <v>86.946546546546543</v>
       </c>
-      <c r="L9" s="5">
-        <f>E9/3.33</f>
+      <c r="L9" s="4">
+        <f t="shared" si="3"/>
         <v>46.546546546546544</v>
       </c>
       <c r="M9" s="2">
-        <f>F9/2.5</f>
+        <f t="shared" si="4"/>
         <v>40.4</v>
       </c>
       <c r="N9" s="2">
-        <f>G9/5</f>
+        <f t="shared" si="5"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="O9" s="4">
-        <f t="shared" si="3"/>
+      <c r="O9" s="3">
+        <f t="shared" si="9"/>
         <v>0.53061224489795922</v>
       </c>
-      <c r="P9" s="4">
-        <f t="shared" si="4"/>
+      <c r="P9" s="3">
+        <f t="shared" si="10"/>
         <v>0.46938775510204084</v>
       </c>
     </row>
@@ -1114,47 +1111,47 @@
         <v>152</v>
       </c>
       <c r="F10" s="2">
-        <f>C10-E10</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="G10" s="2">
-        <f>B10-C10</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="H10" s="2">
-        <f>D10-E10</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
+      <c r="J10" s="4">
+        <f t="shared" si="7"/>
         <v>89.845645645645646</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="2"/>
+      <c r="K10" s="4">
+        <f t="shared" si="8"/>
         <v>80.445645645645641</v>
       </c>
-      <c r="L10" s="5">
-        <f>E10/3.33</f>
+      <c r="L10" s="4">
+        <f t="shared" si="3"/>
         <v>45.645645645645644</v>
       </c>
       <c r="M10" s="2">
-        <f>F10/2.5</f>
+        <f t="shared" si="4"/>
         <v>34.799999999999997</v>
       </c>
       <c r="N10" s="2">
-        <f>G10/5</f>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
-      <c r="O10" s="4">
-        <f t="shared" si="3"/>
+      <c r="O10" s="3">
+        <f t="shared" si="9"/>
         <v>0.44680851063829785</v>
       </c>
-      <c r="P10" s="4">
-        <f t="shared" si="4"/>
+      <c r="P10" s="3">
+        <f t="shared" si="10"/>
         <v>0.55319148936170215</v>
       </c>
     </row>
@@ -1175,47 +1172,47 @@
         <v>161</v>
       </c>
       <c r="F11" s="2">
-        <f>C11-E11</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G11" s="2">
-        <f>B11-C11</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="H11" s="2">
-        <f>D11-E11</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="1"/>
+      <c r="J11" s="4">
+        <f t="shared" si="7"/>
         <v>95.748348348348344</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="2"/>
+      <c r="K11" s="4">
+        <f t="shared" si="8"/>
         <v>84.348348348348338</v>
       </c>
-      <c r="L11" s="5">
-        <f>E11/3.33</f>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
         <v>48.348348348348345</v>
       </c>
       <c r="M11" s="2">
-        <f>F11/2.5</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="N11" s="2">
-        <f>G11/5</f>
+        <f t="shared" si="5"/>
         <v>11.4</v>
       </c>
-      <c r="O11" s="4">
-        <f t="shared" si="3"/>
+      <c r="O11" s="3">
+        <f t="shared" si="9"/>
         <v>0.47368421052631576</v>
       </c>
-      <c r="P11" s="4">
-        <f t="shared" si="4"/>
+      <c r="P11" s="3">
+        <f t="shared" si="10"/>
         <v>0.52631578947368418</v>
       </c>
     </row>
@@ -1236,47 +1233,47 @@
         <v>162</v>
       </c>
       <c r="F12" s="2">
-        <f>C12-E12</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="G12" s="2">
-        <f>B12-C12</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="H12" s="2">
-        <f>D12-E12</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="1"/>
+      <c r="J12" s="4">
+        <f t="shared" si="7"/>
         <v>96.048648648648651</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
+      <c r="K12" s="4">
+        <f t="shared" si="8"/>
         <v>82.648648648648646</v>
       </c>
-      <c r="L12" s="5">
-        <f>E12/3.33</f>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
         <v>48.648648648648646</v>
       </c>
       <c r="M12" s="2">
-        <f>F12/2.5</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="N12" s="2">
-        <f>G12/5</f>
+        <f t="shared" si="5"/>
         <v>13.4</v>
       </c>
-      <c r="O12" s="4">
-        <f t="shared" si="3"/>
+      <c r="O12" s="3">
+        <f t="shared" si="9"/>
         <v>0.52238805970149249</v>
       </c>
-      <c r="P12" s="4">
-        <f t="shared" si="4"/>
+      <c r="P12" s="3">
+        <f t="shared" si="10"/>
         <v>0.47761194029850745</v>
       </c>
     </row>
@@ -1297,47 +1294,47 @@
         <v>165</v>
       </c>
       <c r="F13" s="2">
-        <f>C13-E13</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="G13" s="2">
-        <f>B13-C13</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="H13" s="2">
-        <f>D13-E13</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="1"/>
+      <c r="J13" s="4">
+        <f t="shared" si="7"/>
         <v>98.549549549549553</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="2"/>
+      <c r="K13" s="4">
+        <f t="shared" si="8"/>
         <v>86.749549549549556</v>
       </c>
-      <c r="L13" s="5">
-        <f>E13/3.33</f>
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
         <v>49.549549549549546</v>
       </c>
       <c r="M13" s="2">
-        <f>F13/2.5</f>
+        <f t="shared" si="4"/>
         <v>37.200000000000003</v>
       </c>
       <c r="N13" s="2">
-        <f>G13/5</f>
+        <f t="shared" si="5"/>
         <v>11.8</v>
       </c>
-      <c r="O13" s="4">
-        <f t="shared" si="3"/>
+      <c r="O13" s="3">
+        <f t="shared" si="9"/>
         <v>0.49152542372881358</v>
       </c>
-      <c r="P13" s="4">
-        <f t="shared" si="4"/>
+      <c r="P13" s="3">
+        <f t="shared" si="10"/>
         <v>0.50847457627118642</v>
       </c>
     </row>
@@ -1358,47 +1355,47 @@
         <v>201</v>
       </c>
       <c r="F14" s="2">
-        <f>C14-E14</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="G14" s="2">
-        <f>B14-C14</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="H14" s="2">
-        <f>D14-E14</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="1"/>
+      <c r="J14" s="4">
+        <f t="shared" si="7"/>
         <v>122.76036036036035</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="2"/>
+      <c r="K14" s="4">
+        <f t="shared" si="8"/>
         <v>106.76036036036035</v>
       </c>
-      <c r="L14" s="5">
-        <f>E14/3.33</f>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
         <v>60.36036036036036</v>
       </c>
       <c r="M14" s="2">
-        <f>F14/2.5</f>
+        <f t="shared" si="4"/>
         <v>46.4</v>
       </c>
       <c r="N14" s="2">
-        <f>G14/5</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="O14" s="4">
-        <f t="shared" si="3"/>
+      <c r="O14" s="3">
+        <f t="shared" si="9"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="P14" s="4">
-        <f t="shared" si="4"/>
+      <c r="P14" s="3">
+        <f t="shared" si="10"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -1419,47 +1416,47 @@
         <v>168</v>
       </c>
       <c r="F15" s="2">
-        <f>C15-E15</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="G15" s="2">
-        <f>B15-C15</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="H15" s="2">
-        <f>D15-E15</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="1"/>
+      <c r="J15" s="4">
+        <f t="shared" si="7"/>
         <v>102.05045045045046</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="2"/>
+      <c r="K15" s="4">
+        <f t="shared" si="8"/>
         <v>93.65045045045045</v>
       </c>
-      <c r="L15" s="5">
-        <f>E15/3.33</f>
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
         <v>50.450450450450447</v>
       </c>
       <c r="M15" s="2">
-        <f>F15/2.5</f>
+        <f t="shared" si="4"/>
         <v>43.2</v>
       </c>
       <c r="N15" s="2">
-        <f>G15/5</f>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
-      <c r="O15" s="4">
-        <f t="shared" si="3"/>
+      <c r="O15" s="3">
+        <f t="shared" si="9"/>
         <v>0.52380952380952384</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="4"/>
+      <c r="P15" s="3">
+        <f t="shared" si="10"/>
         <v>0.47619047619047616</v>
       </c>
     </row>
@@ -1480,47 +1477,47 @@
         <v>174</v>
       </c>
       <c r="F16" s="2">
-        <f>C16-E16</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="G16" s="2">
-        <f>B16-C16</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H16" s="2">
-        <f>D16-E16</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="J16" s="5">
-        <f t="shared" si="1"/>
+      <c r="J16" s="4">
+        <f t="shared" si="7"/>
         <v>106.25225225225225</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="2"/>
+      <c r="K16" s="4">
+        <f t="shared" si="8"/>
         <v>92.252252252252248</v>
       </c>
-      <c r="L16" s="5">
-        <f>E16/3.33</f>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
         <v>52.252252252252248</v>
       </c>
       <c r="M16" s="2">
-        <f>F16/2.5</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="N16" s="2">
-        <f>G16/5</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="O16" s="4">
-        <f t="shared" si="3"/>
+      <c r="O16" s="3">
+        <f t="shared" si="9"/>
         <v>0.51428571428571423</v>
       </c>
-      <c r="P16" s="4">
-        <f t="shared" si="4"/>
+      <c r="P16" s="3">
+        <f t="shared" si="10"/>
         <v>0.48571428571428571</v>
       </c>
     </row>
@@ -1541,47 +1538,47 @@
         <v>199</v>
       </c>
       <c r="F17" s="2">
-        <f>C17-E17</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="G17" s="2">
-        <f>B17-C17</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="H17" s="2">
-        <f>D17-E17</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="1"/>
+      <c r="J17" s="4">
+        <f t="shared" si="7"/>
         <v>119.75975975975976</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="2"/>
+      <c r="K17" s="4">
+        <f t="shared" si="8"/>
         <v>109.35975975975975</v>
       </c>
-      <c r="L17" s="5">
-        <f>E17/3.33</f>
+      <c r="L17" s="4">
+        <f t="shared" si="3"/>
         <v>59.75975975975976</v>
       </c>
       <c r="M17" s="2">
-        <f>F17/2.5</f>
+        <f t="shared" si="4"/>
         <v>49.6</v>
       </c>
       <c r="N17" s="2">
-        <f>G17/5</f>
+        <f t="shared" si="5"/>
         <v>10.4</v>
       </c>
-      <c r="O17" s="4">
-        <f t="shared" si="3"/>
+      <c r="O17" s="3">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="P17" s="4">
-        <f t="shared" si="4"/>
+      <c r="P17" s="3">
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1602,47 +1599,47 @@
         <v>162</v>
       </c>
       <c r="F18" s="2">
-        <f>C18-E18</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="G18" s="2">
-        <f>B18-C18</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="H18" s="2">
-        <f>D18-E18</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="1"/>
+      <c r="J18" s="4">
+        <f t="shared" si="7"/>
         <v>99.648648648648646</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="2"/>
+      <c r="K18" s="4">
+        <f t="shared" si="8"/>
         <v>85.848648648648648</v>
       </c>
-      <c r="L18" s="5">
-        <f>E18/3.33</f>
+      <c r="L18" s="4">
+        <f t="shared" si="3"/>
         <v>48.648648648648646</v>
       </c>
       <c r="M18" s="2">
-        <f>F18/2.5</f>
+        <f t="shared" si="4"/>
         <v>37.200000000000003</v>
       </c>
       <c r="N18" s="2">
-        <f>G18/5</f>
+        <f t="shared" si="5"/>
         <v>13.8</v>
       </c>
-      <c r="O18" s="4">
-        <f t="shared" si="3"/>
+      <c r="O18" s="3">
+        <f t="shared" si="9"/>
         <v>0.56521739130434778</v>
       </c>
-      <c r="P18" s="4">
-        <f t="shared" si="4"/>
+      <c r="P18" s="3">
+        <f t="shared" si="10"/>
         <v>0.43478260869565216</v>
       </c>
     </row>
@@ -1663,47 +1660,47 @@
         <v>174</v>
       </c>
       <c r="F19" s="2">
-        <f>C19-E19</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="G19" s="2">
-        <f>B19-C19</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="H19" s="2">
-        <f>D19-E19</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="1"/>
+      <c r="J19" s="4">
+        <f t="shared" si="7"/>
         <v>105.25225225225225</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="2"/>
+      <c r="K19" s="4">
+        <f t="shared" si="8"/>
         <v>92.652252252252254</v>
       </c>
-      <c r="L19" s="5">
-        <f>E19/3.33</f>
+      <c r="L19" s="4">
+        <f t="shared" si="3"/>
         <v>52.252252252252248</v>
       </c>
       <c r="M19" s="2">
-        <f>F19/2.5</f>
+        <f t="shared" si="4"/>
         <v>40.4</v>
       </c>
       <c r="N19" s="2">
-        <f>G19/5</f>
+        <f t="shared" si="5"/>
         <v>12.6</v>
       </c>
-      <c r="O19" s="4">
-        <f t="shared" si="3"/>
+      <c r="O19" s="3">
+        <f t="shared" si="9"/>
         <v>0.46031746031746029</v>
       </c>
-      <c r="P19" s="4">
-        <f t="shared" si="4"/>
+      <c r="P19" s="3">
+        <f t="shared" si="10"/>
         <v>0.53968253968253965</v>
       </c>
     </row>
@@ -1724,47 +1721,47 @@
         <v>174</v>
       </c>
       <c r="F20" s="2">
-        <f>C20-E20</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="G20" s="2">
-        <f>B20-C20</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="H20" s="2">
-        <f>D20-E20</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="J20" s="5">
-        <f t="shared" si="1"/>
+      <c r="J20" s="4">
+        <f t="shared" si="7"/>
         <v>104.05225225225225</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" si="2"/>
+      <c r="K20" s="4">
+        <f t="shared" si="8"/>
         <v>91.052252252252245</v>
       </c>
-      <c r="L20" s="5">
-        <f>E20/3.33</f>
+      <c r="L20" s="4">
+        <f t="shared" si="3"/>
         <v>52.252252252252248</v>
       </c>
       <c r="M20" s="2">
-        <f>F20/2.5</f>
+        <f t="shared" si="4"/>
         <v>38.799999999999997</v>
       </c>
       <c r="N20" s="2">
-        <f>G20/5</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O20" s="4">
-        <f t="shared" si="3"/>
+      <c r="O20" s="3">
+        <f t="shared" si="9"/>
         <v>0.50769230769230766</v>
       </c>
-      <c r="P20" s="4">
-        <f t="shared" si="4"/>
+      <c r="P20" s="3">
+        <f t="shared" si="10"/>
         <v>0.49230769230769234</v>
       </c>
     </row>
@@ -1785,47 +1782,47 @@
         <v>167</v>
       </c>
       <c r="F21" s="2">
-        <f>C21-E21</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G21" s="2">
-        <f>B21-C21</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="H21" s="2">
-        <f>D21-E21</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="J21" s="5">
-        <f t="shared" si="1"/>
+      <c r="J21" s="4">
+        <f t="shared" si="7"/>
         <v>95.550150150150159</v>
       </c>
-      <c r="K21" s="5">
-        <f t="shared" si="2"/>
+      <c r="K21" s="4">
+        <f t="shared" si="8"/>
         <v>86.150150150150154</v>
       </c>
-      <c r="L21" s="5">
-        <f>E21/3.33</f>
+      <c r="L21" s="4">
+        <f t="shared" si="3"/>
         <v>50.150150150150147</v>
       </c>
       <c r="M21" s="2">
-        <f>F21/2.5</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="N21" s="2">
-        <f>G21/5</f>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
-      <c r="O21" s="4">
-        <f t="shared" si="3"/>
+      <c r="O21" s="3">
+        <f t="shared" si="9"/>
         <v>0.40425531914893614</v>
       </c>
-      <c r="P21" s="4">
-        <f t="shared" si="4"/>
+      <c r="P21" s="3">
+        <f t="shared" si="10"/>
         <v>0.5957446808510638</v>
       </c>
     </row>
@@ -1846,47 +1843,47 @@
         <v>131</v>
       </c>
       <c r="F22" s="2">
-        <f>C22-E22</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G22" s="2">
-        <f>B22-C22</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="H22" s="2">
-        <f>D22-E22</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="J22" s="5">
-        <f t="shared" si="1"/>
+      <c r="J22" s="4">
+        <f t="shared" si="7"/>
         <v>77.739339339339352</v>
       </c>
-      <c r="K22" s="5">
-        <f t="shared" si="2"/>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
         <v>67.339339339339347</v>
       </c>
-      <c r="L22" s="5">
-        <f>E22/3.33</f>
+      <c r="L22" s="4">
+        <f t="shared" si="3"/>
         <v>39.33933933933934</v>
       </c>
       <c r="M22" s="2">
-        <f>F22/2.5</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="N22" s="2">
-        <f>G22/5</f>
+        <f t="shared" si="5"/>
         <v>10.4</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" si="3"/>
+      <c r="O22" s="3">
+        <f t="shared" si="9"/>
         <v>0.57692307692307687</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="4"/>
+      <c r="P22" s="3">
+        <f t="shared" si="10"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
@@ -1907,47 +1904,47 @@
         <v>144</v>
       </c>
       <c r="F23" s="2">
-        <f>C23-E23</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="G23" s="2">
-        <f>B23-C23</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="H23" s="2">
-        <f>D23-E23</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J23" s="5">
-        <f t="shared" si="1"/>
+      <c r="J23" s="4">
+        <f t="shared" si="7"/>
         <v>77.043243243243239</v>
       </c>
-      <c r="K23" s="5">
-        <f t="shared" si="2"/>
+      <c r="K23" s="4">
+        <f t="shared" si="8"/>
         <v>63.643243243243241</v>
       </c>
-      <c r="L23" s="5">
-        <f>E23/3.33</f>
+      <c r="L23" s="4">
+        <f t="shared" si="3"/>
         <v>43.243243243243242</v>
       </c>
       <c r="M23" s="2">
-        <f>F23/2.5</f>
+        <f t="shared" si="4"/>
         <v>20.399999999999999</v>
       </c>
       <c r="N23" s="2">
-        <f>G23/5</f>
+        <f t="shared" si="5"/>
         <v>13.4</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" si="3"/>
+      <c r="O23" s="3">
+        <f t="shared" si="9"/>
         <v>0.53731343283582089</v>
       </c>
-      <c r="P23" s="4">
-        <f t="shared" si="4"/>
+      <c r="P23" s="3">
+        <f t="shared" si="10"/>
         <v>0.46268656716417911</v>
       </c>
     </row>
@@ -1968,47 +1965,47 @@
         <v>162</v>
       </c>
       <c r="F24" s="2">
-        <f>C24-E24</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="G24" s="2">
-        <f>B24-C24</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H24" s="2">
-        <f>D24-E24</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="J24" s="5">
-        <f t="shared" si="1"/>
+      <c r="J24" s="4">
+        <f t="shared" si="7"/>
         <v>93.048648648648651</v>
       </c>
-      <c r="K24" s="5">
-        <f t="shared" si="2"/>
+      <c r="K24" s="4">
+        <f t="shared" si="8"/>
         <v>79.048648648648651</v>
       </c>
-      <c r="L24" s="5">
-        <f>E24/3.33</f>
+      <c r="L24" s="4">
+        <f t="shared" si="3"/>
         <v>48.648648648648646</v>
       </c>
       <c r="M24" s="2">
-        <f>F24/2.5</f>
+        <f t="shared" si="4"/>
         <v>30.4</v>
       </c>
       <c r="N24" s="2">
-        <f>G24/5</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="O24" s="4">
-        <f t="shared" si="3"/>
+      <c r="O24" s="3">
+        <f t="shared" si="9"/>
         <v>0.44285714285714284</v>
       </c>
-      <c r="P24" s="4">
-        <f t="shared" si="4"/>
+      <c r="P24" s="3">
+        <f t="shared" si="10"/>
         <v>0.55714285714285716</v>
       </c>
     </row>
@@ -2029,47 +2026,47 @@
         <v>177</v>
       </c>
       <c r="F25" s="2">
-        <f>C25-E25</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="G25" s="2">
-        <f>B25-C25</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="H25" s="2">
-        <f>D25-E25</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="J25" s="5">
-        <f t="shared" si="1"/>
+      <c r="J25" s="4">
+        <f t="shared" si="7"/>
         <v>104.95315315315315</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" si="2"/>
+      <c r="K25" s="4">
+        <f t="shared" si="8"/>
         <v>90.353153153153158</v>
       </c>
-      <c r="L25" s="5">
-        <f>E25/3.33</f>
+      <c r="L25" s="4">
+        <f t="shared" si="3"/>
         <v>53.153153153153148</v>
       </c>
       <c r="M25" s="2">
-        <f>F25/2.5</f>
+        <f t="shared" si="4"/>
         <v>37.200000000000003</v>
       </c>
       <c r="N25" s="2">
-        <f>G25/5</f>
+        <f t="shared" si="5"/>
         <v>14.6</v>
       </c>
-      <c r="O25" s="4">
-        <f t="shared" si="3"/>
+      <c r="O25" s="3">
+        <f t="shared" si="9"/>
         <v>0.46575342465753422</v>
       </c>
-      <c r="P25" s="4">
-        <f t="shared" si="4"/>
+      <c r="P25" s="3">
+        <f t="shared" si="10"/>
         <v>0.53424657534246578</v>
       </c>
     </row>
@@ -2090,47 +2087,47 @@
         <v>193</v>
       </c>
       <c r="F26" s="2">
-        <f>C26-E26</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="G26" s="2">
-        <f>B26-C26</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="H26" s="2">
-        <f>D26-E26</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="J26" s="5">
-        <f t="shared" si="1"/>
+      <c r="J26" s="4">
+        <f t="shared" si="7"/>
         <v>108.15795795795796</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" si="2"/>
+      <c r="K26" s="4">
+        <f t="shared" si="8"/>
         <v>93.557957957957967</v>
       </c>
-      <c r="L26" s="5">
-        <f>E26/3.33</f>
+      <c r="L26" s="4">
+        <f t="shared" si="3"/>
         <v>57.957957957957959</v>
       </c>
       <c r="M26" s="2">
-        <f>F26/2.5</f>
+        <f t="shared" si="4"/>
         <v>35.6</v>
       </c>
       <c r="N26" s="2">
-        <f>G26/5</f>
+        <f t="shared" si="5"/>
         <v>14.6</v>
       </c>
-      <c r="O26" s="4">
-        <f t="shared" si="3"/>
+      <c r="O26" s="3">
+        <f t="shared" si="9"/>
         <v>0.56164383561643838</v>
       </c>
-      <c r="P26" s="4">
-        <f t="shared" si="4"/>
+      <c r="P26" s="3">
+        <f t="shared" si="10"/>
         <v>0.43835616438356162</v>
       </c>
     </row>
@@ -2151,47 +2148,47 @@
         <v>211</v>
       </c>
       <c r="F27" s="2">
-        <f>C27-E27</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="G27" s="2">
-        <f>B27-C27</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="H27" s="2">
-        <f>D27-E27</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J27" s="5">
-        <f t="shared" si="1"/>
+      <c r="J27" s="4">
+        <f t="shared" si="7"/>
         <v>111.96336336336336</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" si="2"/>
+      <c r="K27" s="4">
+        <f t="shared" si="8"/>
         <v>98.163363363363359</v>
       </c>
-      <c r="L27" s="5">
-        <f>E27/3.33</f>
+      <c r="L27" s="4">
+        <f t="shared" si="3"/>
         <v>63.363363363363362</v>
       </c>
       <c r="M27" s="2">
-        <f>F27/2.5</f>
+        <f t="shared" si="4"/>
         <v>34.799999999999997</v>
       </c>
       <c r="N27" s="2">
-        <f>G27/5</f>
+        <f t="shared" si="5"/>
         <v>13.8</v>
       </c>
-      <c r="O27" s="4">
-        <f t="shared" si="3"/>
+      <c r="O27" s="3">
+        <f t="shared" si="9"/>
         <v>0.55072463768115942</v>
       </c>
-      <c r="P27" s="4">
-        <f t="shared" si="4"/>
+      <c r="P27" s="3">
+        <f t="shared" si="10"/>
         <v>0.44927536231884058</v>
       </c>
     </row>
@@ -2212,47 +2209,47 @@
         <v>195</v>
       </c>
       <c r="F28" s="2">
-        <f>C28-E28</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="G28" s="2">
-        <f>B28-C28</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H28" s="2">
-        <f>D28-E28</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="J28" s="5">
-        <f t="shared" si="1"/>
+      <c r="J28" s="4">
+        <f t="shared" si="7"/>
         <v>106.15855855855855</v>
       </c>
-      <c r="K28" s="5">
-        <f t="shared" si="2"/>
+      <c r="K28" s="4">
+        <f t="shared" si="8"/>
         <v>94.158558558558553</v>
       </c>
-      <c r="L28" s="5">
-        <f>E28/3.33</f>
+      <c r="L28" s="4">
+        <f t="shared" si="3"/>
         <v>58.558558558558559</v>
       </c>
       <c r="M28" s="2">
-        <f>F28/2.5</f>
+        <f t="shared" si="4"/>
         <v>35.6</v>
       </c>
       <c r="N28" s="2">
-        <f>G28/5</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O28" s="4">
-        <f t="shared" si="3"/>
+      <c r="O28" s="3">
+        <f t="shared" si="9"/>
         <v>0.45</v>
       </c>
-      <c r="P28" s="4">
-        <f t="shared" si="4"/>
+      <c r="P28" s="3">
+        <f t="shared" si="10"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -2273,47 +2270,47 @@
         <v>179</v>
       </c>
       <c r="F29" s="2">
-        <f>C29-E29</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="G29" s="2">
-        <f>B29-C29</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="H29" s="2">
-        <f>D29-E29</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J29" s="5">
-        <f t="shared" si="1"/>
+      <c r="J29" s="4">
+        <f t="shared" si="7"/>
         <v>82.153753753753762</v>
       </c>
-      <c r="K29" s="5">
-        <f t="shared" si="2"/>
+      <c r="K29" s="4">
+        <f t="shared" si="8"/>
         <v>70.953753753753759</v>
       </c>
-      <c r="L29" s="5">
-        <f>E29/3.33</f>
+      <c r="L29" s="4">
+        <f t="shared" si="3"/>
         <v>53.753753753753756</v>
       </c>
       <c r="M29" s="2">
-        <f>F29/2.5</f>
+        <f t="shared" si="4"/>
         <v>17.2</v>
       </c>
       <c r="N29" s="2">
-        <f>G29/5</f>
+        <f t="shared" si="5"/>
         <v>11.2</v>
       </c>
-      <c r="O29" s="4">
-        <f t="shared" si="3"/>
+      <c r="O29" s="3">
+        <f t="shared" si="9"/>
         <v>0.5535714285714286</v>
       </c>
-      <c r="P29" s="4">
-        <f t="shared" si="4"/>
+      <c r="P29" s="3">
+        <f t="shared" si="10"/>
         <v>0.44642857142857145</v>
       </c>
     </row>
@@ -2334,47 +2331,47 @@
         <v>183</v>
       </c>
       <c r="F30" s="2">
-        <f>C30-E30</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="G30" s="2">
-        <f>B30-C30</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="H30" s="2">
-        <f>D30-E30</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="J30" s="5">
-        <f t="shared" si="1"/>
+      <c r="J30" s="4">
+        <f t="shared" si="7"/>
         <v>87.154954954954945</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="2"/>
+      <c r="K30" s="4">
+        <f t="shared" si="8"/>
         <v>74.554954954954951</v>
       </c>
-      <c r="L30" s="5">
-        <f>E30/3.33</f>
+      <c r="L30" s="4">
+        <f t="shared" si="3"/>
         <v>54.954954954954957</v>
       </c>
       <c r="M30" s="2">
-        <f>F30/2.5</f>
+        <f t="shared" si="4"/>
         <v>19.600000000000001</v>
       </c>
       <c r="N30" s="2">
-        <f>G30/5</f>
+        <f t="shared" si="5"/>
         <v>12.6</v>
       </c>
-      <c r="O30" s="4">
-        <f t="shared" si="3"/>
+      <c r="O30" s="3">
+        <f t="shared" si="9"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="P30" s="4">
-        <f t="shared" si="4"/>
+      <c r="P30" s="3">
+        <f t="shared" si="10"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -2395,47 +2392,47 @@
         <v>176</v>
       </c>
       <c r="F31" s="2">
-        <f>C31-E31</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G31" s="2">
-        <f>B31-C31</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="H31" s="2">
-        <f>D31-E31</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="J31" s="5">
-        <f t="shared" si="1"/>
+      <c r="J31" s="4">
+        <f t="shared" si="7"/>
         <v>77.252852852852854</v>
       </c>
-      <c r="K31" s="5">
-        <f t="shared" si="2"/>
+      <c r="K31" s="4">
+        <f t="shared" si="8"/>
         <v>66.052852852852851</v>
       </c>
-      <c r="L31" s="5">
-        <f>E31/3.33</f>
+      <c r="L31" s="4">
+        <f t="shared" si="3"/>
         <v>52.852852852852848</v>
       </c>
       <c r="M31" s="2">
-        <f>F31/2.5</f>
+        <f t="shared" si="4"/>
         <v>13.2</v>
       </c>
       <c r="N31" s="2">
-        <f>G31/5</f>
+        <f t="shared" si="5"/>
         <v>11.2</v>
       </c>
-      <c r="O31" s="4">
-        <f t="shared" si="3"/>
+      <c r="O31" s="3">
+        <f t="shared" si="9"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="P31" s="4">
-        <f t="shared" si="4"/>
+      <c r="P31" s="3">
+        <f t="shared" si="10"/>
         <v>0.5357142857142857</v>
       </c>
     </row>
@@ -2456,47 +2453,47 @@
         <v>187</v>
       </c>
       <c r="F32" s="2">
-        <f>C32-E32</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G32" s="2">
-        <f>B32-C32</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="H32" s="2">
-        <f>D32-E32</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="J32" s="5">
-        <f t="shared" si="1"/>
+      <c r="J32" s="4">
+        <f t="shared" si="7"/>
         <v>87.156156156156158</v>
       </c>
-      <c r="K32" s="5">
-        <f t="shared" si="2"/>
+      <c r="K32" s="4">
+        <f t="shared" si="8"/>
         <v>70.956156156156155</v>
       </c>
-      <c r="L32" s="5">
-        <f>E32/3.33</f>
+      <c r="L32" s="4">
+        <f t="shared" si="3"/>
         <v>56.156156156156158</v>
       </c>
       <c r="M32" s="2">
-        <f>F32/2.5</f>
+        <f t="shared" si="4"/>
         <v>14.8</v>
       </c>
       <c r="N32" s="2">
-        <f>G32/5</f>
+        <f t="shared" si="5"/>
         <v>16.2</v>
       </c>
-      <c r="O32" s="4">
-        <f t="shared" si="3"/>
+      <c r="O32" s="3">
+        <f t="shared" si="9"/>
         <v>0.48148148148148145</v>
       </c>
-      <c r="P32" s="4">
-        <f t="shared" si="4"/>
+      <c r="P32" s="3">
+        <f t="shared" si="10"/>
         <v>0.51851851851851849</v>
       </c>
     </row>
@@ -2517,47 +2514,47 @@
         <v>198</v>
       </c>
       <c r="F33" s="2">
-        <f>C33-E33</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="G33" s="2">
-        <f>B33-C33</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="H33" s="2">
-        <f>D33-E33</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J33" s="5">
-        <f t="shared" si="1"/>
+      <c r="J33" s="4">
+        <f t="shared" si="7"/>
         <v>92.65945945945947</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="2"/>
+      <c r="K33" s="4">
+        <f t="shared" si="8"/>
         <v>80.259459459459464</v>
       </c>
-      <c r="L33" s="5">
-        <f>E33/3.33</f>
+      <c r="L33" s="4">
+        <f t="shared" si="3"/>
         <v>59.45945945945946</v>
       </c>
       <c r="M33" s="2">
-        <f>F33/2.5</f>
+        <f t="shared" si="4"/>
         <v>20.8</v>
       </c>
       <c r="N33" s="2">
-        <f>G33/5</f>
+        <f t="shared" si="5"/>
         <v>12.4</v>
       </c>
-      <c r="O33" s="4">
-        <f t="shared" si="3"/>
+      <c r="O33" s="3">
+        <f t="shared" si="9"/>
         <v>0.59677419354838712</v>
       </c>
-      <c r="P33" s="4">
-        <f t="shared" si="4"/>
+      <c r="P33" s="3">
+        <f t="shared" si="10"/>
         <v>0.40322580645161288</v>
       </c>
     </row>
@@ -2578,47 +2575,47 @@
         <v>182</v>
       </c>
       <c r="F34" s="2">
-        <f>C34-E34</f>
+        <f t="shared" ref="F34:F51" si="11">C34-E34</f>
         <v>37</v>
       </c>
       <c r="G34" s="2">
-        <f>B34-C34</f>
+        <f t="shared" ref="G34:G51" si="12">B34-C34</f>
         <v>53</v>
       </c>
       <c r="H34" s="2">
-        <f>D34-E34</f>
+        <f t="shared" ref="H34:H51" si="13">D34-E34</f>
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="J34" s="5">
-        <f t="shared" si="1"/>
+      <c r="J34" s="4">
+        <f t="shared" si="7"/>
         <v>80.054654654654655</v>
       </c>
-      <c r="K34" s="5">
-        <f t="shared" si="2"/>
+      <c r="K34" s="4">
+        <f t="shared" si="8"/>
         <v>69.454654654654661</v>
       </c>
-      <c r="L34" s="5">
-        <f>E34/3.33</f>
+      <c r="L34" s="4">
+        <f t="shared" ref="L34:L51" si="14">E34/3.33</f>
         <v>54.654654654654657</v>
       </c>
       <c r="M34" s="2">
-        <f>F34/2.5</f>
+        <f t="shared" ref="M34:M51" si="15">F34/2.5</f>
         <v>14.8</v>
       </c>
       <c r="N34" s="2">
-        <f>G34/5</f>
+        <f t="shared" ref="N34:N51" si="16">G34/5</f>
         <v>10.6</v>
       </c>
-      <c r="O34" s="4">
-        <f t="shared" si="3"/>
+      <c r="O34" s="3">
+        <f t="shared" si="9"/>
         <v>0.43396226415094341</v>
       </c>
-      <c r="P34" s="4">
-        <f t="shared" si="4"/>
+      <c r="P34" s="3">
+        <f t="shared" si="10"/>
         <v>0.56603773584905659</v>
       </c>
     </row>
@@ -2639,47 +2636,47 @@
         <v>188</v>
       </c>
       <c r="F35" s="2">
-        <f>C35-E35</f>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="G35" s="2">
-        <f>B35-C35</f>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="H35" s="2">
-        <f>D35-E35</f>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="J35" s="5">
-        <f t="shared" si="1"/>
+      <c r="J35" s="4">
+        <f t="shared" si="7"/>
         <v>89.056456456456459</v>
       </c>
-      <c r="K35" s="5">
-        <f t="shared" si="2"/>
+      <c r="K35" s="4">
+        <f t="shared" si="8"/>
         <v>72.056456456456459</v>
       </c>
-      <c r="L35" s="5">
-        <f>E35/3.33</f>
+      <c r="L35" s="4">
+        <f t="shared" si="14"/>
         <v>56.456456456456458</v>
       </c>
       <c r="M35" s="2">
-        <f>F35/2.5</f>
+        <f t="shared" si="15"/>
         <v>15.6</v>
       </c>
       <c r="N35" s="2">
-        <f>G35/5</f>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="O35" s="4">
-        <f t="shared" si="3"/>
+      <c r="O35" s="3">
+        <f t="shared" si="9"/>
         <v>0.55294117647058827</v>
       </c>
-      <c r="P35" s="4">
-        <f t="shared" si="4"/>
+      <c r="P35" s="3">
+        <f t="shared" si="10"/>
         <v>0.44705882352941179</v>
       </c>
     </row>
@@ -2700,47 +2697,47 @@
         <v>205</v>
       </c>
       <c r="F36" s="2">
-        <f>C36-E36</f>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="G36" s="2">
-        <f>B36-C36</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="H36" s="2">
-        <f>D36-E36</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="J36" s="5">
-        <f t="shared" si="1"/>
+      <c r="J36" s="4">
+        <f t="shared" si="7"/>
         <v>96.361561561561558</v>
       </c>
-      <c r="K36" s="5">
-        <f t="shared" si="2"/>
+      <c r="K36" s="4">
+        <f t="shared" si="8"/>
         <v>80.361561561561558</v>
       </c>
-      <c r="L36" s="5">
-        <f>E36/3.33</f>
+      <c r="L36" s="4">
+        <f t="shared" si="14"/>
         <v>61.561561561561561</v>
       </c>
       <c r="M36" s="2">
-        <f>F36/2.5</f>
+        <f t="shared" si="15"/>
         <v>18.8</v>
       </c>
       <c r="N36" s="2">
-        <f>G36/5</f>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="O36" s="4">
-        <f t="shared" si="3"/>
+      <c r="O36" s="3">
+        <f t="shared" si="9"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="P36" s="4">
-        <f t="shared" si="4"/>
+      <c r="P36" s="3">
+        <f t="shared" si="10"/>
         <v>0.47499999999999998</v>
       </c>
     </row>
@@ -2761,47 +2758,47 @@
         <v>183</v>
       </c>
       <c r="F37" s="2">
-        <f>C37-E37</f>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="G37" s="2">
-        <f>B37-C37</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="H37" s="2">
-        <f>D37-E37</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="J37" s="5">
-        <f t="shared" si="1"/>
+      <c r="J37" s="4">
+        <f t="shared" si="7"/>
         <v>82.554954954954951</v>
       </c>
-      <c r="K37" s="5">
-        <f t="shared" si="2"/>
+      <c r="K37" s="4">
+        <f t="shared" si="8"/>
         <v>70.554954954954951</v>
       </c>
-      <c r="L37" s="5">
-        <f>E37/3.33</f>
+      <c r="L37" s="4">
+        <f t="shared" si="14"/>
         <v>54.954954954954957</v>
       </c>
       <c r="M37" s="2">
-        <f>F37/2.5</f>
+        <f t="shared" si="15"/>
         <v>15.6</v>
       </c>
       <c r="N37" s="2">
-        <f>G37/5</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="O37" s="4">
-        <f t="shared" si="3"/>
+      <c r="O37" s="3">
+        <f t="shared" si="9"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="P37" s="4">
-        <f t="shared" si="4"/>
+      <c r="P37" s="3">
+        <f t="shared" si="10"/>
         <v>0.56666666666666665</v>
       </c>
     </row>
@@ -2822,47 +2819,47 @@
         <v>191</v>
       </c>
       <c r="F38" s="2">
-        <f>C38-E38</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="G38" s="2">
-        <f>B38-C38</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="H38" s="2">
-        <f>D38-E38</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="1"/>
+      <c r="J38" s="4">
+        <f t="shared" si="7"/>
         <v>83.357357357357358</v>
       </c>
-      <c r="K38" s="5">
-        <f t="shared" si="2"/>
+      <c r="K38" s="4">
+        <f t="shared" si="8"/>
         <v>71.357357357357358</v>
       </c>
-      <c r="L38" s="5">
-        <f>E38/3.33</f>
+      <c r="L38" s="4">
+        <f t="shared" si="14"/>
         <v>57.357357357357358</v>
       </c>
       <c r="M38" s="2">
-        <f>F38/2.5</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="N38" s="2">
-        <f>G38/5</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="O38" s="4">
-        <f t="shared" si="3"/>
+      <c r="O38" s="3">
+        <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="P38" s="4">
-        <f t="shared" si="4"/>
+      <c r="P38" s="3">
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2883,47 +2880,47 @@
         <v>178</v>
       </c>
       <c r="F39" s="2">
-        <f>C39-E39</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="G39" s="2">
-        <f>B39-C39</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="H39" s="2">
-        <f>D39-E39</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="J39" s="5">
-        <f t="shared" si="1"/>
+      <c r="J39" s="4">
+        <f t="shared" si="7"/>
         <v>78.253453453453446</v>
       </c>
-      <c r="K39" s="5">
-        <f t="shared" si="2"/>
+      <c r="K39" s="4">
+        <f t="shared" si="8"/>
         <v>67.453453453453449</v>
       </c>
-      <c r="L39" s="5">
-        <f>E39/3.33</f>
+      <c r="L39" s="4">
+        <f t="shared" si="14"/>
         <v>53.453453453453456</v>
       </c>
       <c r="M39" s="2">
-        <f>F39/2.5</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="N39" s="2">
-        <f>G39/5</f>
+        <f t="shared" si="16"/>
         <v>10.8</v>
       </c>
-      <c r="O39" s="4">
-        <f t="shared" si="3"/>
+      <c r="O39" s="3">
+        <f t="shared" si="9"/>
         <v>0.51851851851851849</v>
       </c>
-      <c r="P39" s="4">
-        <f t="shared" si="4"/>
+      <c r="P39" s="3">
+        <f t="shared" si="10"/>
         <v>0.48148148148148145</v>
       </c>
     </row>
@@ -2944,47 +2941,47 @@
         <v>179</v>
       </c>
       <c r="F40" s="2">
-        <f>C40-E40</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="G40" s="2">
-        <f>B40-C40</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="H40" s="2">
-        <f>D40-E40</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J40" s="5">
-        <f t="shared" si="1"/>
+      <c r="J40" s="4">
+        <f t="shared" si="7"/>
         <v>71.753753753753756</v>
       </c>
-      <c r="K40" s="5">
-        <f t="shared" si="2"/>
+      <c r="K40" s="4">
+        <f t="shared" si="8"/>
         <v>61.753753753753756</v>
       </c>
-      <c r="L40" s="5">
-        <f>E40/3.33</f>
+      <c r="L40" s="4">
+        <f t="shared" si="14"/>
         <v>53.753753753753756</v>
       </c>
       <c r="M40" s="2">
-        <f>F40/2.5</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N40" s="2">
-        <f>G40/5</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="O40" s="4">
-        <f t="shared" si="3"/>
+      <c r="O40" s="3">
+        <f t="shared" si="9"/>
         <v>0.38</v>
       </c>
-      <c r="P40" s="4">
-        <f t="shared" si="4"/>
+      <c r="P40" s="3">
+        <f t="shared" si="10"/>
         <v>0.62</v>
       </c>
     </row>
@@ -3005,47 +3002,47 @@
         <v>178</v>
       </c>
       <c r="F41" s="2">
-        <f>C41-E41</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="G41" s="2">
-        <f>B41-C41</f>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="H41" s="2">
-        <f>D41-E41</f>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="J41" s="5">
-        <f t="shared" si="1"/>
+      <c r="J41" s="4">
+        <f t="shared" si="7"/>
         <v>79.453453453453449</v>
       </c>
-      <c r="K41" s="5">
-        <f t="shared" si="2"/>
+      <c r="K41" s="4">
+        <f t="shared" si="8"/>
         <v>63.053453453453457</v>
       </c>
-      <c r="L41" s="5">
-        <f>E41/3.33</f>
+      <c r="L41" s="4">
+        <f t="shared" si="14"/>
         <v>53.453453453453456</v>
       </c>
       <c r="M41" s="2">
-        <f>F41/2.5</f>
+        <f t="shared" si="15"/>
         <v>9.6</v>
       </c>
       <c r="N41" s="2">
-        <f>G41/5</f>
+        <f t="shared" si="16"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="O41" s="4">
-        <f t="shared" si="3"/>
+      <c r="O41" s="3">
+        <f t="shared" si="9"/>
         <v>0.53658536585365857</v>
       </c>
-      <c r="P41" s="4">
-        <f t="shared" si="4"/>
+      <c r="P41" s="3">
+        <f t="shared" si="10"/>
         <v>0.46341463414634149</v>
       </c>
     </row>
@@ -3066,47 +3063,47 @@
         <v>179</v>
       </c>
       <c r="F42" s="2">
-        <f>C42-E42</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="G42" s="2">
-        <f>B42-C42</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="H42" s="2">
-        <f>D42-E42</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="1"/>
+      <c r="J42" s="4">
+        <f t="shared" si="7"/>
         <v>78.153753753753762</v>
       </c>
-      <c r="K42" s="5">
-        <f t="shared" si="2"/>
+      <c r="K42" s="4">
+        <f t="shared" si="8"/>
         <v>66.153753753753762</v>
       </c>
-      <c r="L42" s="5">
-        <f>E42/3.33</f>
+      <c r="L42" s="4">
+        <f t="shared" si="14"/>
         <v>53.753753753753756</v>
       </c>
       <c r="M42" s="2">
-        <f>F42/2.5</f>
+        <f t="shared" si="15"/>
         <v>12.4</v>
       </c>
       <c r="N42" s="2">
-        <f>G42/5</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="O42" s="4">
-        <f t="shared" si="3"/>
+      <c r="O42" s="3">
+        <f t="shared" si="9"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="P42" s="4">
-        <f t="shared" si="4"/>
+      <c r="P42" s="3">
+        <f t="shared" si="10"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
@@ -3127,47 +3124,47 @@
         <v>172</v>
       </c>
       <c r="F43" s="2">
-        <f>C43-E43</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="G43" s="2">
-        <f>B43-C43</f>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="H43" s="2">
-        <f>D43-E43</f>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="J43" s="5">
-        <f t="shared" si="1"/>
+      <c r="J43" s="4">
+        <f t="shared" si="7"/>
         <v>75.251651651651642</v>
       </c>
-      <c r="K43" s="5">
-        <f t="shared" si="2"/>
+      <c r="K43" s="4">
+        <f t="shared" si="8"/>
         <v>63.651651651651648</v>
       </c>
-      <c r="L43" s="5">
-        <f>E43/3.33</f>
+      <c r="L43" s="4">
+        <f t="shared" si="14"/>
         <v>51.651651651651648</v>
       </c>
       <c r="M43" s="2">
-        <f>F43/2.5</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="N43" s="2">
-        <f>G43/5</f>
+        <f t="shared" si="16"/>
         <v>11.6</v>
       </c>
-      <c r="O43" s="4">
-        <f t="shared" si="3"/>
+      <c r="O43" s="3">
+        <f t="shared" si="9"/>
         <v>0.55172413793103448</v>
       </c>
-      <c r="P43" s="4">
-        <f t="shared" si="4"/>
+      <c r="P43" s="3">
+        <f t="shared" si="10"/>
         <v>0.44827586206896552</v>
       </c>
     </row>
@@ -3188,47 +3185,47 @@
         <v>180</v>
       </c>
       <c r="F44" s="2">
-        <f>C44-E44</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="G44" s="2">
-        <f>B44-C44</f>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="H44" s="2">
-        <f>D44-E44</f>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="J44" s="5">
-        <f t="shared" si="1"/>
+      <c r="J44" s="4">
+        <f t="shared" si="7"/>
         <v>81.85405405405406</v>
       </c>
-      <c r="K44" s="5">
-        <f t="shared" si="2"/>
+      <c r="K44" s="4">
+        <f t="shared" si="8"/>
         <v>68.454054054054055</v>
       </c>
-      <c r="L44" s="5">
-        <f>E44/3.33</f>
+      <c r="L44" s="4">
+        <f t="shared" si="14"/>
         <v>54.054054054054056</v>
       </c>
       <c r="M44" s="2">
-        <f>F44/2.5</f>
+        <f t="shared" si="15"/>
         <v>14.4</v>
       </c>
       <c r="N44" s="2">
-        <f>G44/5</f>
+        <f t="shared" si="16"/>
         <v>13.4</v>
       </c>
-      <c r="O44" s="4">
-        <f t="shared" si="3"/>
+      <c r="O44" s="3">
+        <f t="shared" si="9"/>
         <v>0.47761194029850745</v>
       </c>
-      <c r="P44" s="4">
-        <f t="shared" si="4"/>
+      <c r="P44" s="3">
+        <f t="shared" si="10"/>
         <v>0.52238805970149249</v>
       </c>
     </row>
@@ -3249,47 +3246,47 @@
         <v>171</v>
       </c>
       <c r="F45" s="2">
-        <f>C45-E45</f>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="G45" s="2">
-        <f>B45-C45</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="H45" s="2">
-        <f>D45-E45</f>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="J45" s="5">
-        <f t="shared" si="1"/>
+      <c r="J45" s="4">
+        <f t="shared" si="7"/>
         <v>84.751351351351346</v>
       </c>
-      <c r="K45" s="5">
-        <f t="shared" si="2"/>
+      <c r="K45" s="4">
+        <f t="shared" si="8"/>
         <v>69.751351351351346</v>
       </c>
-      <c r="L45" s="5">
-        <f>E45/3.33</f>
+      <c r="L45" s="4">
+        <f t="shared" si="14"/>
         <v>51.351351351351347</v>
       </c>
       <c r="M45" s="2">
-        <f>F45/2.5</f>
+        <f t="shared" si="15"/>
         <v>18.399999999999999</v>
       </c>
       <c r="N45" s="2">
-        <f>G45/5</f>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="O45" s="4">
-        <f t="shared" si="3"/>
+      <c r="O45" s="3">
+        <f t="shared" si="9"/>
         <v>0.48</v>
       </c>
-      <c r="P45" s="4">
-        <f t="shared" si="4"/>
+      <c r="P45" s="3">
+        <f t="shared" si="10"/>
         <v>0.52</v>
       </c>
     </row>
@@ -3310,47 +3307,47 @@
         <v>174</v>
       </c>
       <c r="F46" s="2">
-        <f>C46-E46</f>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="G46" s="2">
-        <f>B46-C46</f>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="H46" s="2">
-        <f>D46-E46</f>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="1"/>
+      <c r="J46" s="4">
+        <f t="shared" si="7"/>
         <v>77.852252252252256</v>
       </c>
-      <c r="K46" s="5">
-        <f t="shared" si="2"/>
+      <c r="K46" s="4">
+        <f t="shared" si="8"/>
         <v>67.452252252252251</v>
       </c>
-      <c r="L46" s="5">
-        <f>E46/3.33</f>
+      <c r="L46" s="4">
+        <f t="shared" si="14"/>
         <v>52.252252252252248</v>
       </c>
       <c r="M46" s="2">
-        <f>F46/2.5</f>
+        <f t="shared" si="15"/>
         <v>15.2</v>
       </c>
       <c r="N46" s="2">
-        <f>G46/5</f>
+        <f t="shared" si="16"/>
         <v>10.4</v>
       </c>
-      <c r="O46" s="4">
-        <f t="shared" si="3"/>
+      <c r="O46" s="3">
+        <f t="shared" si="9"/>
         <v>0.55769230769230771</v>
       </c>
-      <c r="P46" s="4">
-        <f t="shared" si="4"/>
+      <c r="P46" s="3">
+        <f t="shared" si="10"/>
         <v>0.44230769230769229</v>
       </c>
     </row>
@@ -3371,47 +3368,47 @@
         <v>156</v>
       </c>
       <c r="F47" s="2">
-        <f>C47-E47</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="G47" s="2">
-        <f>B47-C47</f>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="H47" s="2">
-        <f>D47-E47</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" si="1"/>
+      <c r="J47" s="4">
+        <f t="shared" si="7"/>
         <v>69.846846846846844</v>
       </c>
-      <c r="K47" s="5">
-        <f t="shared" si="2"/>
+      <c r="K47" s="4">
+        <f t="shared" si="8"/>
         <v>59.646846846846842</v>
       </c>
-      <c r="L47" s="5">
-        <f>E47/3.33</f>
+      <c r="L47" s="4">
+        <f t="shared" si="14"/>
         <v>46.846846846846844</v>
       </c>
       <c r="M47" s="2">
-        <f>F47/2.5</f>
+        <f t="shared" si="15"/>
         <v>12.8</v>
       </c>
       <c r="N47" s="2">
-        <f>G47/5</f>
+        <f t="shared" si="16"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="O47" s="4">
-        <f t="shared" si="3"/>
+      <c r="O47" s="3">
+        <f t="shared" si="9"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="P47" s="4">
-        <f t="shared" si="4"/>
+      <c r="P47" s="3">
+        <f t="shared" si="10"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
@@ -3432,47 +3429,47 @@
         <v>162</v>
       </c>
       <c r="F48" s="2">
-        <f>C48-E48</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="G48" s="2">
-        <f>B48-C48</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="H48" s="2">
-        <f>D48-E48</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="J48" s="5">
-        <f t="shared" si="1"/>
+      <c r="J48" s="4">
+        <f t="shared" si="7"/>
         <v>68.24864864864864</v>
       </c>
-      <c r="K48" s="5">
-        <f t="shared" si="2"/>
+      <c r="K48" s="4">
+        <f t="shared" si="8"/>
         <v>58.248648648648647</v>
       </c>
-      <c r="L48" s="5">
-        <f>E48/3.33</f>
+      <c r="L48" s="4">
+        <f t="shared" si="14"/>
         <v>48.648648648648646</v>
       </c>
       <c r="M48" s="2">
-        <f>F48/2.5</f>
+        <f t="shared" si="15"/>
         <v>9.6</v>
       </c>
       <c r="N48" s="2">
-        <f>G48/5</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="O48" s="4">
-        <f t="shared" si="3"/>
+      <c r="O48" s="3">
+        <f t="shared" si="9"/>
         <v>0.54</v>
       </c>
-      <c r="P48" s="4">
-        <f t="shared" si="4"/>
+      <c r="P48" s="3">
+        <f t="shared" si="10"/>
         <v>0.46</v>
       </c>
     </row>
@@ -3493,47 +3490,47 @@
         <v>168</v>
       </c>
       <c r="F49" s="2">
-        <f>C49-E49</f>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="G49" s="2">
-        <f>B49-C49</f>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="H49" s="2">
-        <f>D49-E49</f>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="J49" s="5">
-        <f t="shared" si="1"/>
+      <c r="J49" s="4">
+        <f t="shared" si="7"/>
         <v>81.850450450450452</v>
       </c>
-      <c r="K49" s="5">
-        <f t="shared" si="2"/>
+      <c r="K49" s="4">
+        <f t="shared" si="8"/>
         <v>63.65045045045045</v>
       </c>
-      <c r="L49" s="5">
-        <f>E49/3.33</f>
+      <c r="L49" s="4">
+        <f t="shared" si="14"/>
         <v>50.450450450450447</v>
       </c>
       <c r="M49" s="2">
-        <f>F49/2.5</f>
+        <f t="shared" si="15"/>
         <v>13.2</v>
       </c>
       <c r="N49" s="2">
-        <f>G49/5</f>
+        <f t="shared" si="16"/>
         <v>18.2</v>
       </c>
-      <c r="O49" s="4">
-        <f t="shared" si="3"/>
+      <c r="O49" s="3">
+        <f t="shared" si="9"/>
         <v>0.50549450549450547</v>
       </c>
-      <c r="P49" s="4">
-        <f t="shared" si="4"/>
+      <c r="P49" s="3">
+        <f t="shared" si="10"/>
         <v>0.49450549450549453</v>
       </c>
     </row>
@@ -3554,47 +3551,47 @@
         <v>178</v>
       </c>
       <c r="F50" s="2">
-        <f>C50-E50</f>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="G50" s="2">
-        <f>B50-C50</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="H50" s="2">
-        <f>D50-E50</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="J50" s="5">
-        <f t="shared" si="1"/>
+      <c r="J50" s="4">
+        <f t="shared" si="7"/>
         <v>81.653453453453466</v>
       </c>
-      <c r="K50" s="5">
-        <f t="shared" si="2"/>
+      <c r="K50" s="4">
+        <f t="shared" si="8"/>
         <v>70.25345345345346</v>
       </c>
-      <c r="L50" s="5">
-        <f>E50/3.33</f>
+      <c r="L50" s="4">
+        <f t="shared" si="14"/>
         <v>53.453453453453456</v>
       </c>
       <c r="M50" s="2">
-        <f>F50/2.5</f>
+        <f t="shared" si="15"/>
         <v>16.8</v>
       </c>
       <c r="N50" s="2">
-        <f>G50/5</f>
+        <f t="shared" si="16"/>
         <v>11.4</v>
       </c>
-      <c r="O50" s="4">
-        <f t="shared" si="3"/>
+      <c r="O50" s="3">
+        <f t="shared" si="9"/>
         <v>0.49122807017543857</v>
       </c>
-      <c r="P50" s="4">
-        <f t="shared" si="4"/>
+      <c r="P50" s="3">
+        <f t="shared" si="10"/>
         <v>0.50877192982456143</v>
       </c>
     </row>
@@ -3615,47 +3612,47 @@
         <v>163</v>
       </c>
       <c r="F51" s="2">
-        <f>C51-E51</f>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="G51" s="2">
-        <f>B51-C51</f>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="H51" s="2">
-        <f>D51-E51</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="J51" s="5">
-        <f t="shared" si="1"/>
+      <c r="J51" s="4">
+        <f t="shared" si="7"/>
         <v>77.148948948948942</v>
       </c>
-      <c r="K51" s="5">
-        <f t="shared" si="2"/>
+      <c r="K51" s="4">
+        <f t="shared" si="8"/>
         <v>64.548948948948947</v>
       </c>
-      <c r="L51" s="5">
-        <f>E51/3.33</f>
+      <c r="L51" s="4">
+        <f t="shared" si="14"/>
         <v>48.948948948948946</v>
       </c>
       <c r="M51" s="2">
-        <f>F51/2.5</f>
+        <f t="shared" si="15"/>
         <v>15.6</v>
       </c>
       <c r="N51" s="2">
-        <f>G51/5</f>
+        <f t="shared" si="16"/>
         <v>12.6</v>
       </c>
-      <c r="O51" s="4">
-        <f t="shared" si="3"/>
+      <c r="O51" s="3">
+        <f t="shared" si="9"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="P51" s="4">
-        <f t="shared" si="4"/>
+      <c r="P51" s="3">
+        <f t="shared" si="10"/>
         <v>0.55555555555555558</v>
       </c>
     </row>

--- a/Population_estimate_calculations.xlsx
+++ b/Population_estimate_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heiwu\OneDrive\Documents\Deer_RPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C688D-2741-40E2-B7E7-00D190A73F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF6329-0D8C-482F-88DE-6CD6B976F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79CABF98-DA17-4D78-AF4B-650A465C74CF}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>PopF+C (All females)</t>
   </si>
   <si>
-    <t>PopF+M (all adults)</t>
-  </si>
-  <si>
     <t>LU_F+M</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>M_Calves_ratio</t>
+  </si>
+  <si>
+    <t>Adults</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -585,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -600,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">

--- a/Population_estimate_calculations.xlsx
+++ b/Population_estimate_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heiwu\OneDrive\Documents\Deer_RPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF6329-0D8C-482F-88DE-6CD6B976F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF5126-77D6-438B-92B6-D673A6122D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79CABF98-DA17-4D78-AF4B-650A465C74CF}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>LU_Calves</t>
   </si>
   <si>
-    <t>PopN (Total)</t>
-  </si>
-  <si>
     <t>PopF+C (All females)</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Adults</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -585,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -600,10 +600,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
